--- a/結合テスト仕様書_4270_重田紘輝.xlsx
+++ b/結合テスト仕様書_4270_重田紘輝.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
   <si>
     <t>課題キー</t>
   </si>
@@ -899,6 +899,52 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1-13</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>検索・削除・更新ボタン</t>
+    <rPh sb="0" eb="8">
+      <t>ケンサクテンサクジョテンコウシン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>検索ボタンを押して、データを検出をする。データを直接消して、削除ボタンを押すとデータは消えるのか</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データは消える</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1586,11 +1632,11 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFEA9999"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1639,8 +1685,8 @@
         <f>COUNTA(J4:J993) &amp; "/"&amp;COUNTA(G4:G993) &amp; "件
 [" &amp; COUNTIF(J4:J993,"×") &amp; "件 " &amp;
 ROUND( (COUNTIF(J4:J993,"×") ) / ( COUNTA(G4:G993) ) *100, 1) &amp; "%]"</f>
-        <v>12/12件
-[4件 33.3%]</v>
+        <v>13/13件
+[5件 38.5%]</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
@@ -2075,38 +2121,71 @@
         <v>83</v>
       </c>
     </row>
+    <row r="16" spans="1:11" ht="43.2" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="31">
+        <v>44041</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
+  <mergeCells count="32">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/結合テスト仕様書_4270_重田紘輝.xlsx
+++ b/結合テスト仕様書_4270_重田紘輝.xlsx
@@ -1381,15 +1381,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1412,6 +1409,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1635,8 +1635,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1655,10 +1655,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,10 +1668,10 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="43"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1696,11 +1696,11 @@
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="38"/>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="38"/>
@@ -1727,11 +1727,11 @@
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="38"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="38"/>
@@ -1756,11 +1756,11 @@
       <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="47" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="38"/>
@@ -1787,11 +1787,11 @@
       <c r="B5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="47" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="38"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="37" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="38"/>
@@ -1818,11 +1818,11 @@
       <c r="B6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="47" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="38"/>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="37" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="38"/>
@@ -1849,11 +1849,11 @@
       <c r="B7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="47" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="38"/>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="37" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="38"/>
@@ -1880,11 +1880,11 @@
       <c r="B8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="47" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="37" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="38"/>
@@ -2154,6 +2154,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E7:F7"/>
@@ -2170,22 +2186,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/結合テスト仕様書_4270_重田紘輝.xlsx
+++ b/結合テスト仕様書_4270_重田紘輝.xlsx
@@ -1381,12 +1381,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1409,9 +1412,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1635,8 +1635,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1655,10 +1655,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,10 +1668,10 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="42"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +1686,7 @@
 [" &amp; COUNTIF(J4:J993,"×") &amp; "件 " &amp;
 ROUND( (COUNTIF(J4:J993,"×") ) / ( COUNTA(G4:G993) ) *100, 1) &amp; "%]"</f>
         <v>13/13件
-[5件 38.5%]</v>
+[3件 23.1%]</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
@@ -1696,11 +1696,11 @@
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="38"/>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="45" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="38"/>
@@ -1727,11 +1727,11 @@
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="38"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="38"/>
@@ -1756,11 +1756,11 @@
       <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="38"/>
@@ -1787,11 +1787,11 @@
       <c r="B5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="38"/>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="39" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="38"/>
@@ -1818,11 +1818,11 @@
       <c r="B6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="38"/>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="38"/>
@@ -1849,11 +1849,11 @@
       <c r="B7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="38"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="39" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="38"/>
@@ -1880,11 +1880,11 @@
       <c r="B8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="37" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="39" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="38"/>
@@ -2115,7 +2115,7 @@
         <v>44041</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15" s="33" t="s">
         <v>83</v>
@@ -2146,7 +2146,7 @@
         <v>44041</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K16" s="33" t="s">
         <v>87</v>
@@ -2154,6 +2154,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C7:D7"/>
@@ -2170,22 +2186,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
